--- a/ePICreator/Humira.xlsx
+++ b/ePICreator/Humira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A3E815-782C-A244-AC70-E806090E98BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D22D4D-0DA3-B843-A841-C60BB14F535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
   <si>
     <t>id</t>
   </si>
@@ -156,18 +156,12 @@
     <t>Packaging_type</t>
   </si>
   <si>
-    <t>packaging.quantity</t>
-  </si>
-  <si>
     <t>packaging_material</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Chemical Medicinal Prodcut</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -460,12 +454,6 @@
   </si>
   <si>
     <t>Pre-filled syringe</t>
-  </si>
-  <si>
-    <t>67061 Ludwigshafen</t>
-  </si>
-  <si>
-    <t>xx</t>
   </si>
   <si>
     <t>TEST PURPOSES ONLY - Humira 20 mg Solution for injection Subcutaneous use pre-filled syringe (glass)</t>
@@ -885,12 +873,48 @@
 Do not throw away any medicines via wastewater or household waste. Ask your doctor or pharmacist how
 to throw away medicines you no longer use. These measures will help protect the environment.&lt;/p&gt;</t>
   </si>
+  <si>
+    <t>ORG-100008684</t>
+  </si>
+  <si>
+    <t>Ludwigshafen Am Rhein</t>
+  </si>
+  <si>
+    <t>packaging_quantity</t>
+  </si>
+  <si>
+    <t>Glass type I</t>
+  </si>
+  <si>
+    <t>inside_packaging_identifier</t>
+  </si>
+  <si>
+    <t>inside_packaging_type</t>
+  </si>
+  <si>
+    <t>inside_packaging_typeID</t>
+  </si>
+  <si>
+    <t>inside_packaging_quantity</t>
+  </si>
+  <si>
+    <t>inside_packaging_material</t>
+  </si>
+  <si>
+    <t>inside_packaging_materialID</t>
+  </si>
+  <si>
+    <t>Cardboard</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -979,6 +1003,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1000,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1024,6 +1054,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,25 +1403,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1399,25 +1430,25 @@
     <row r="2" spans="1:13" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>11201000</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J2" s="18">
         <v>20066000</v>
@@ -1469,31 +1500,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -1502,19 +1533,19 @@
     <row r="2" spans="1:14" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1545,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1562,13 +1593,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -1611,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -1668,37 +1699,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
-      </c>
-      <c r="N1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" t="s">
-        <v>97</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -1707,39 +1738,39 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="O2" s="6"/>
     </row>
@@ -1786,13 +1817,13 @@
         <v>15</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1816,16 +1847,16 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1834,16 +1865,16 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1852,10 +1883,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>8</v>
@@ -1864,10 +1895,10 @@
         <v>72072</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1882,16 +1913,16 @@
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1963,13 +1994,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -1978,22 +2009,22 @@
     <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
@@ -2059,7 +2090,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
@@ -2071,31 +2102,31 @@
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
       <c r="T1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" t="s">
         <v>101</v>
-      </c>
-      <c r="U1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" t="s">
-        <v>103</v>
       </c>
       <c r="W1" t="s">
         <v>10</v>
@@ -2104,31 +2135,31 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" t="s">
-        <v>136</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -2143,13 +2174,13 @@
         <v>9</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="S2" s="9">
         <v>100000000000</v>
@@ -2165,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2191,40 +2222,40 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>77</v>
-      </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
+        <v>104</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -2236,7 +2267,7 @@
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -2245,13 +2276,16 @@
         <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" t="s">
-        <v>138</v>
+        <v>105</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="M2" s="21">
+        <v>67061</v>
       </c>
     </row>
   </sheetData>
@@ -2262,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2275,7 +2309,7 @@
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="24.1640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
@@ -2283,11 +2317,11 @@
     <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="14" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2301,76 +2335,115 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>11</v>
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
       <c r="N1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="Q1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19">
+    <row r="2" spans="1:22" ht="19">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2">
-        <v>123456</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="18">
-        <v>30051000</v>
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="21">
+        <v>100000073498</v>
+      </c>
+      <c r="K2" s="21">
+        <v>100000073498</v>
       </c>
       <c r="L2">
         <v>1</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="21">
+        <v>200000003529</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>123456</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="18">
+        <v>30051000</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="21">
+        <v>200000003204</v>
       </c>
     </row>
   </sheetData>
@@ -2403,22 +2476,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2427,31 +2500,31 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Humira.xlsx
+++ b/ePICreator/Humira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D22D4D-0DA3-B843-A841-C60BB14F535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3405B4D9-295A-4E4C-80E5-17E2BF5EF8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -69,9 +69,6 @@
     <t>route</t>
   </si>
   <si>
-    <t>target_species</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>routeID</t>
   </si>
   <si>
-    <t>target_speciesID</t>
-  </si>
-  <si>
     <t>conceptID</t>
   </si>
   <si>
@@ -378,9 +372,6 @@
     <t>Polysorbate 80</t>
   </si>
   <si>
-    <t>Water for injections</t>
-  </si>
-  <si>
     <t>100000072082</t>
   </si>
   <si>
@@ -423,9 +414,6 @@
     <t>059QF0KO0R</t>
   </si>
   <si>
-    <t>Humira 20 mg Solution for injection Subcutaneous use pre-filled syringe (glass)</t>
-  </si>
-  <si>
     <t>Solution for injection</t>
   </si>
   <si>
@@ -438,9 +426,6 @@
     <t>Subcutaneous use</t>
   </si>
   <si>
-    <t>Humira 20 mg solution for injection in pre-filled syringe 2 pre-filled syringes + 2 alcohol pads</t>
-  </si>
-  <si>
     <t>Humira</t>
   </si>
   <si>
@@ -460,19 +445,6 @@
   </si>
   <si>
     <t>humira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Humira 20 mg solution for injection in pre-filled syringe
-adalimumab&lt;/p&gt;
-&lt;p&gt;Read all of this leaflet carefully before your child starts using this medicine because it contains important information.&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Keep this leaflet. You may need to read it again.&lt;/li&gt;
-&lt;li&gt;Your doctor will also give you a Patient Reminder Card, which contains important safety information that you need to be aware of before your child begins using Humira and during treatment with Humira. Keep this Patient Reminder Card with you or your child.&lt;/li&gt;
-&lt;li&gt;If you have any questions, ask your doctor or pharmacist.&lt;/li&gt;
-&lt;li&gt;This medicine has been prescribed for your child only. Do not pass it on to others. It may harm them, even if their signs of illness are the same as your child.&lt;/li&gt;
-&lt;li&gt;If your child gets any side effects, talk to your doctor or pharmacist. This includes any possible side effects not listed in this leaflet. See section 4.&lt;/li&gt;
-&lt;/ul&gt;
-</t>
   </si>
   <si>
     <t>&lt;p&gt;What is in this leaflet&lt;/p&gt;
@@ -909,12 +881,70 @@
   <si>
     <t>xxxx</t>
   </si>
+  <si>
+    <t>Humira 40 mg solution for injection in pre-filled syringe 2 pre-filled syringes + 2 alcohol pads</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>Humira 40 mg Solution for injection Subcutaneous use pre-filled syringe (glass)</t>
+  </si>
+  <si>
+    <t>EU/1/03/256/001</t>
+  </si>
+  <si>
+    <t>CITRIC ACID MONOHYDRATE</t>
+  </si>
+  <si>
+    <t>2968PHW8QP</t>
+  </si>
+  <si>
+    <t>1Q73Q2JULR</t>
+  </si>
+  <si>
+    <t>SODIUM CITRATE, UNSPECIFIED FORM</t>
+  </si>
+  <si>
+    <t>SODIUM PHOSPHATE, MONOBASIC, DIHYDRATE</t>
+  </si>
+  <si>
+    <t>5QWK665956</t>
+  </si>
+  <si>
+    <t>94255I6E2T</t>
+  </si>
+  <si>
+    <t>SODIUM PHOSPHATE, DIBASIC, DIHYDRATE</t>
+  </si>
+  <si>
+    <t>Sodium chloride</t>
+  </si>
+  <si>
+    <t>451W47IQ8X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Humira 40 mg solution for injection in pre-filled syringe
+adalimumab&lt;/p&gt;
+&lt;p&gt;Read all of this leaflet carefully before your child starts using this medicine because it contains important information.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Keep this leaflet. You may need to read it again.&lt;/li&gt;
+&lt;li&gt;Your doctor will also give you a Patient Reminder Card, which contains important safety information that you need to be aware of before your child begins using Humira and during treatment with Humira. Keep this Patient Reminder Card with you or your child.&lt;/li&gt;
+&lt;li&gt;If you have any questions, ask your doctor or pharmacist.&lt;/li&gt;
+&lt;li&gt;This medicine has been prescribed for your child only. Do not pass it on to others. It may harm them, even if their signs of illness are the same as your child.&lt;/li&gt;
+&lt;li&gt;If your child gets any side effects, talk to your doctor or pharmacist. This includes any possible side effects not listed in this leaflet. See section 4.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>STERILE WATER FOR INJECTION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1009,6 +1039,26 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC7254E"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1027,10 +1077,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1055,8 +1106,12 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1369,24 +1424,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7762C-AB2F-B34F-B02E-3A163776DCB2}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,61 +1457,49 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>11201000</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J2" s="18">
         <v>20066000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2">
-        <v>100000109093</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1513,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1500,52 +1542,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1576,30 +1618,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1630,22 +1672,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1673,7 +1715,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1690,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1699,78 +1741,78 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
-      </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="O2" s="6"/>
     </row>
@@ -1783,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F4AB6-8E39-3645-80A9-C32AEEA52BB0}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1814,140 +1856,210 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10">
         <v>72072</v>
       </c>
       <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>110</v>
+      <c r="B5" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21">
       <c r="A8" s="1"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="21">
       <c r="A9" s="1"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21">
       <c r="A10" s="1"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="G10" s="5"/>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
@@ -1956,6 +2068,12 @@
       <c r="G11" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="https://gsrs.ncats.nih.gov/ginas/app/beta/substances/fdcbbffe-7c4e-4f1f-9e1a-4e7af379e911" xr:uid="{3EB40B8A-272D-3B44-8BD1-08D43A466382}"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://gsrs.ncats.nih.gov/ginas/app/beta/substances/8d692ac9-ea49-4702-ace9-68ca055f693b" xr:uid="{0EC0B42E-5E07-5943-A658-F1F368EFA846}"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://gsrs.ncats.nih.gov/ginas/app/beta/substances/9481d54c-0157-4a0e-8402-3ee775244fc2" xr:uid="{9C9DA491-5C86-6349-99F6-7D554B9056B9}"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://gsrs.ncats.nih.gov/ginas/app/beta/substances/306d24b9-a6b8-4091-8024-02f9ec24b705" xr:uid="{94CA2395-AD48-174A-814D-C06D328FAFF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1966,7 +2084,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1994,37 +2112,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
@@ -2041,7 +2159,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2066,121 +2184,121 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>64</v>
-      </c>
       <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
         <v>67</v>
       </c>
-      <c r="S1" t="s">
-        <v>69</v>
-      </c>
       <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" t="s">
         <v>99</v>
       </c>
-      <c r="U1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" t="s">
-        <v>101</v>
-      </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="P2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="S2" s="9">
         <v>100000000000</v>
@@ -2216,73 +2334,73 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
-      </c>
       <c r="M1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="7">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M2" s="21">
         <v>67061</v>
@@ -2298,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2335,79 +2453,79 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" t="s">
-        <v>153</v>
-      </c>
       <c r="U1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="V1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="19">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J2" s="21">
         <v>100000073498</v>
@@ -2419,19 +2537,19 @@
         <v>1</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N2" s="21">
         <v>200000003529</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2">
         <v>123456</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R2" s="18">
         <v>30051000</v>
@@ -2440,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="U2" s="21">
         <v>200000003204</v>
@@ -2476,55 +2594,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Humira.xlsx
+++ b/ePICreator/Humira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3405B4D9-295A-4E4C-80E5-17E2BF5EF8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8965DFCE-C1A5-474C-8329-D4E964B2553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -72,9 +72,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>language</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
-    <t>Human use</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -219,30 +210,15 @@
     <t>StrengthBasis</t>
   </si>
   <si>
-    <t>ACTIB</t>
-  </si>
-  <si>
     <t>StrengthBasisText</t>
   </si>
   <si>
     <t>active ingredient - basis of strength</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>domainID</t>
-  </si>
-  <si>
     <t>typeID</t>
   </si>
   <si>
-    <t>MedicinalProduct</t>
-  </si>
-  <si>
-    <t>Medicinal Product</t>
-  </si>
-  <si>
     <t>statusSuply</t>
   </si>
   <si>
@@ -252,9 +228,6 @@
     <t>statusSuplyID</t>
   </si>
   <si>
-    <t>address_text</t>
-  </si>
-  <si>
     <t>address_use</t>
   </si>
   <si>
@@ -328,9 +301,6 @@
   </si>
   <si>
     <t>other_info</t>
-  </si>
-  <si>
-    <t>street tal e tal</t>
   </si>
   <si>
     <t>languageID</t>
@@ -938,6 +908,9 @@
   </si>
   <si>
     <t>STERILE WATER FOR INJECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIB </t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1400,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1457,46 +1430,46 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>11201000</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J2" s="18">
         <v>20066000</v>
@@ -1542,52 +1515,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1618,30 +1591,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1672,22 +1645,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1732,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1741,78 +1714,78 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="O2" s="6"/>
     </row>
@@ -1825,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F4AB6-8E39-3645-80A9-C32AEEA52BB0}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1856,49 +1829,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1906,17 +1879,17 @@
     </row>
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>107</v>
+      <c r="B3" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -1925,10 +1898,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>7</v>
@@ -1937,10 +1910,10 @@
         <v>72072</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1949,22 +1922,22 @@
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="24" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -1973,16 +1946,16 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -1991,16 +1964,16 @@
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -2009,16 +1982,16 @@
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -2027,16 +2000,16 @@
     <row r="9" spans="1:13" ht="21">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -2045,16 +2018,16 @@
     <row r="10" spans="1:13" ht="21">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" t="s">
@@ -2084,7 +2057,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2112,37 +2085,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
@@ -2156,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2175,132 +2148,102 @@
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="10.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" t="s">
-        <v>99</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="9">
+      <c r="M2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="9">
         <v>100000000000</v>
       </c>
     </row>
@@ -2312,18 +2255,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="12" width="11" customWidth="1"/>
+    <col min="1" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,72 +2280,66 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="21">
+      <c r="L2" s="21">
         <v>67061</v>
       </c>
     </row>
@@ -2416,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2453,79 +2390,79 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="19">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J2" s="21">
         <v>100000073498</v>
@@ -2537,19 +2474,19 @@
         <v>1</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="N2" s="21">
         <v>200000003529</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P2">
         <v>123456</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R2" s="18">
         <v>30051000</v>
@@ -2558,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="U2" s="21">
         <v>200000003204</v>
@@ -2575,7 +2512,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2594,55 +2531,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Humira.xlsx
+++ b/ePICreator/Humira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C28A26-C793-284B-A4C6-0443779250DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87670948-61DB-D944-AA8A-A1011201003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -84,9 +84,6 @@
     <t>mg</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
   </si>
   <si>
     <t>Pre-filled syringe</t>
-  </si>
-  <si>
-    <t>TEST PURPOSES ONLY - Humira 20 mg Solution for injection Subcutaneous use pre-filled syringe (glass)</t>
   </si>
   <si>
     <t>humira</t>
@@ -911,6 +905,12 @@
   </si>
   <si>
     <t xml:space="preserve">ACTIB </t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>EU/1/03/256/022|0xe72f98caa2b13cb3ccb489a1a7945c91</t>
   </si>
 </sst>
 </file>
@@ -1430,19 +1430,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1451,25 +1451,25 @@
     <row r="2" spans="1:11" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>11201000</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="18">
         <v>20066000</v>
@@ -1515,31 +1515,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -1548,19 +1548,19 @@
     <row r="2" spans="1:14" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1591,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1608,13 +1608,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1657,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -1685,48 +1685,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>76</v>
       </c>
       <c r="J1" t="s">
         <v>78</v>
@@ -1747,53 +1747,47 @@
         <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.6">
+    <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,31 +1829,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -1868,16 +1862,16 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1886,16 +1880,16 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -1904,10 +1898,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>7</v>
@@ -1916,10 +1910,10 @@
         <v>72072</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1934,16 +1928,16 @@
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -1952,16 +1946,16 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -1970,16 +1964,16 @@
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -1988,16 +1982,16 @@
     <row r="8" spans="1:13" ht="21">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -2006,16 +2000,16 @@
     <row r="9" spans="1:13" ht="21">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -2024,16 +2018,16 @@
     <row r="10" spans="1:13" ht="21">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" t="s">
@@ -2091,13 +2085,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -2106,22 +2100,22 @@
     <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="H2" s="18">
         <v>15052000</v>
@@ -2135,121 +2129,130 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
       </c>
       <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="9">
         <v>100000000000</v>
       </c>
     </row>
@@ -2289,25 +2292,25 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -2316,34 +2319,34 @@
     <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="7">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
         <v>93</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" t="s">
-        <v>94</v>
       </c>
       <c r="L2" s="21">
         <v>67061</v>
@@ -2396,55 +2399,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>134</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>135</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>136</v>
-      </c>
-      <c r="T1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" t="s">
-        <v>138</v>
       </c>
       <c r="V1" t="s">
         <v>8</v>
@@ -2453,22 +2456,22 @@
     <row r="2" spans="1:22" ht="19">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2" s="21">
         <v>100000073498</v>
@@ -2480,19 +2483,19 @@
         <v>1</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N2" s="21">
         <v>200000003529</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>123456</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R2" s="18">
         <v>30051000</v>
@@ -2501,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U2" s="21">
         <v>200000003204</v>
@@ -2518,7 +2521,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2537,22 +2540,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -2561,31 +2564,31 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
         <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
